--- a/02_Data/04_Social indicators/01_Raw Data/index_gog.xlsx
+++ b/02_Data/04_Social indicators/01_Raw Data/index_gog.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mhachaichi\Documents\ESPON-DATA\02_Data\04_Social indicators\01_Raw Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E635850-D710-470E-A00B-C934E4679277}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D59880DD-D8F1-41D8-B76A-E9452BD6A698}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1880" yWindow="2520" windowWidth="14400" windowHeight="7460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="380" yWindow="840" windowWidth="14400" windowHeight="7460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2001" uniqueCount="1205">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1988" uniqueCount="1195">
   <si>
     <t>country</t>
   </si>
@@ -3424,57 +3424,6 @@
     <t>NO06</t>
   </si>
   <si>
-    <t>Évora</t>
-  </si>
-  <si>
-    <t>Aveiro</t>
-  </si>
-  <si>
-    <t>Beja</t>
-  </si>
-  <si>
-    <t>Bragança</t>
-  </si>
-  <si>
-    <t>Castelo Branco</t>
-  </si>
-  <si>
-    <t>Coimbra</t>
-  </si>
-  <si>
-    <t>Faro</t>
-  </si>
-  <si>
-    <t>Guarda</t>
-  </si>
-  <si>
-    <t>Leiri</t>
-  </si>
-  <si>
-    <t>Portalegre</t>
-  </si>
-  <si>
-    <t>Porto</t>
-  </si>
-  <si>
-    <t>Santarém</t>
-  </si>
-  <si>
-    <t>Setúbal</t>
-  </si>
-  <si>
-    <t>Lisboa</t>
-  </si>
-  <si>
-    <t>Viana do Castelo</t>
-  </si>
-  <si>
-    <t>Vila Real</t>
-  </si>
-  <si>
-    <t>Viseu</t>
-  </si>
-  <si>
     <t>RO121</t>
   </si>
   <si>
@@ -3635,6 +3584,27 @@
   </si>
   <si>
     <t>SI035</t>
+  </si>
+  <si>
+    <t>PT16D</t>
+  </si>
+  <si>
+    <t>PT200</t>
+  </si>
+  <si>
+    <t>PT170</t>
+  </si>
+  <si>
+    <t>PT300</t>
+  </si>
+  <si>
+    <t>PT16H</t>
+  </si>
+  <si>
+    <t>PT16E</t>
+  </si>
+  <si>
+    <t>PT16F</t>
   </si>
 </sst>
 </file>
@@ -3747,15 +3717,21 @@
       <name val="MS Sans Serif"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF8F9FA"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -3775,6 +3751,21 @@
       </top>
       <bottom style="thin">
         <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFA2A9B1"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFA2A9B1"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFA2A9B1"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFA2A9B1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3821,7 +3812,7 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -3829,6 +3820,9 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="40">
     <cellStyle name="Comma [0] 2" xfId="29" xr:uid="{EA302F78-70C6-42DE-A092-DD782797FE14}"/>
@@ -4172,8 +4166,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D668"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A658" workbookViewId="0">
-      <selection activeCell="B664" sqref="B664"/>
+    <sheetView tabSelected="1" topLeftCell="A518" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D521" sqref="D521"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -9891,8 +9885,8 @@
       <c r="B520" s="4" t="s">
         <v>543</v>
       </c>
-      <c r="C520" s="4" t="s">
-        <v>1135</v>
+      <c r="C520" s="3" t="s">
+        <v>1188</v>
       </c>
     </row>
     <row r="521" spans="1:3" x14ac:dyDescent="0.35">
@@ -9902,8 +9896,8 @@
       <c r="B521" s="4" t="s">
         <v>544</v>
       </c>
-      <c r="C521" s="4" t="s">
-        <v>544</v>
+      <c r="C521" s="3" t="s">
+        <v>1189</v>
       </c>
     </row>
     <row r="522" spans="1:3" x14ac:dyDescent="0.35">
@@ -9913,8 +9907,8 @@
       <c r="B522" s="4" t="s">
         <v>545</v>
       </c>
-      <c r="C522" s="4" t="s">
-        <v>1136</v>
+      <c r="C522" s="3" t="s">
+        <v>1192</v>
       </c>
     </row>
     <row r="523" spans="1:3" x14ac:dyDescent="0.35">
@@ -9924,9 +9918,7 @@
       <c r="B523" s="4" t="s">
         <v>546</v>
       </c>
-      <c r="C523" s="4" t="s">
-        <v>546</v>
-      </c>
+      <c r="C523" s="4"/>
     </row>
     <row r="524" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A524" s="4" t="s">
@@ -9935,9 +9927,7 @@
       <c r="B524" s="4" t="s">
         <v>547</v>
       </c>
-      <c r="C524" s="4" t="s">
-        <v>1137</v>
-      </c>
+      <c r="C524" s="4"/>
     </row>
     <row r="525" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A525" s="4" t="s">
@@ -9946,9 +9936,7 @@
       <c r="B525" s="4" t="s">
         <v>548</v>
       </c>
-      <c r="C525" s="4" t="s">
-        <v>1138</v>
-      </c>
+      <c r="C525" s="4"/>
     </row>
     <row r="526" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A526" s="4" t="s">
@@ -9957,8 +9945,8 @@
       <c r="B526" s="4" t="s">
         <v>549</v>
       </c>
-      <c r="C526" s="4" t="s">
-        <v>1139</v>
+      <c r="C526" s="3" t="s">
+        <v>1193</v>
       </c>
     </row>
     <row r="527" spans="1:3" x14ac:dyDescent="0.35">
@@ -9968,9 +9956,7 @@
       <c r="B527" s="4" t="s">
         <v>550</v>
       </c>
-      <c r="C527" s="4" t="s">
-        <v>1140</v>
-      </c>
+      <c r="C527" s="4"/>
     </row>
     <row r="528" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A528" s="4" t="s">
@@ -9979,9 +9965,7 @@
       <c r="B528" s="4" t="s">
         <v>551</v>
       </c>
-      <c r="C528" s="4" t="s">
-        <v>1141</v>
-      </c>
+      <c r="C528" s="4"/>
     </row>
     <row r="529" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A529" s="4" t="s">
@@ -9990,8 +9974,8 @@
       <c r="B529" s="4" t="s">
         <v>552</v>
       </c>
-      <c r="C529" s="4" t="s">
-        <v>1142</v>
+      <c r="C529" s="3" t="s">
+        <v>1194</v>
       </c>
     </row>
     <row r="530" spans="1:3" x14ac:dyDescent="0.35">
@@ -10001,8 +9985,8 @@
       <c r="B530" s="4" t="s">
         <v>553</v>
       </c>
-      <c r="C530" s="4" t="s">
-        <v>1147</v>
+      <c r="C530" s="3" t="s">
+        <v>1190</v>
       </c>
     </row>
     <row r="531" spans="1:3" x14ac:dyDescent="0.35">
@@ -10012,8 +9996,8 @@
       <c r="B531" s="4" t="s">
         <v>554</v>
       </c>
-      <c r="C531" s="4" t="s">
-        <v>554</v>
+      <c r="C531" s="3" t="s">
+        <v>1191</v>
       </c>
     </row>
     <row r="532" spans="1:3" x14ac:dyDescent="0.35">
@@ -10023,9 +10007,7 @@
       <c r="B532" s="4" t="s">
         <v>555</v>
       </c>
-      <c r="C532" s="4" t="s">
-        <v>1143</v>
-      </c>
+      <c r="C532" s="3"/>
     </row>
     <row r="533" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A533" s="4" t="s">
@@ -10034,9 +10016,7 @@
       <c r="B533" s="4" t="s">
         <v>556</v>
       </c>
-      <c r="C533" s="4" t="s">
-        <v>1144</v>
-      </c>
+      <c r="C533" s="3"/>
     </row>
     <row r="534" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A534" s="4" t="s">
@@ -10045,9 +10025,7 @@
       <c r="B534" s="4" t="s">
         <v>557</v>
       </c>
-      <c r="C534" s="4" t="s">
-        <v>1145</v>
-      </c>
+      <c r="C534" s="3"/>
     </row>
     <row r="535" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A535" s="4" t="s">
@@ -10056,9 +10034,7 @@
       <c r="B535" s="4" t="s">
         <v>558</v>
       </c>
-      <c r="C535" s="4" t="s">
-        <v>1146</v>
-      </c>
+      <c r="C535" s="3"/>
     </row>
     <row r="536" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A536" s="4" t="s">
@@ -10067,9 +10043,7 @@
       <c r="B536" s="4" t="s">
         <v>559</v>
       </c>
-      <c r="C536" s="4" t="s">
-        <v>1148</v>
-      </c>
+      <c r="C536" s="3"/>
     </row>
     <row r="537" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A537" s="4" t="s">
@@ -10078,31 +10052,25 @@
       <c r="B537" s="4" t="s">
         <v>560</v>
       </c>
-      <c r="C537" s="4" t="s">
-        <v>1149</v>
-      </c>
-    </row>
-    <row r="538" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="C537" s="3"/>
+    </row>
+    <row r="538" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A538" s="4" t="s">
         <v>542</v>
       </c>
       <c r="B538" s="4" t="s">
         <v>561</v>
       </c>
-      <c r="C538" s="4" t="s">
-        <v>1150</v>
-      </c>
-    </row>
-    <row r="539" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="C538" s="3"/>
+    </row>
+    <row r="539" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A539" s="4" t="s">
         <v>542</v>
       </c>
       <c r="B539" s="4" t="s">
         <v>562</v>
       </c>
-      <c r="C539" s="4" t="s">
-        <v>1134</v>
-      </c>
+      <c r="C539" s="5"/>
     </row>
     <row r="540" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A540" s="4" t="s">
@@ -10112,7 +10080,7 @@
         <v>564</v>
       </c>
       <c r="C540" s="4" t="s">
-        <v>1151</v>
+        <v>1134</v>
       </c>
     </row>
     <row r="541" spans="1:3" x14ac:dyDescent="0.35">
@@ -10123,7 +10091,7 @@
         <v>565</v>
       </c>
       <c r="C541" s="4" t="s">
-        <v>1152</v>
+        <v>1135</v>
       </c>
     </row>
     <row r="542" spans="1:3" x14ac:dyDescent="0.35">
@@ -10134,7 +10102,7 @@
         <v>566</v>
       </c>
       <c r="C542" s="4" t="s">
-        <v>1153</v>
+        <v>1136</v>
       </c>
     </row>
     <row r="543" spans="1:3" x14ac:dyDescent="0.35">
@@ -10145,7 +10113,7 @@
         <v>567</v>
       </c>
       <c r="C543" s="4" t="s">
-        <v>1154</v>
+        <v>1137</v>
       </c>
     </row>
     <row r="544" spans="1:3" x14ac:dyDescent="0.35">
@@ -10156,7 +10124,7 @@
         <v>568</v>
       </c>
       <c r="C544" s="4" t="s">
-        <v>1155</v>
+        <v>1138</v>
       </c>
     </row>
     <row r="545" spans="1:3" x14ac:dyDescent="0.35">
@@ -10167,7 +10135,7 @@
         <v>569</v>
       </c>
       <c r="C545" s="4" t="s">
-        <v>1156</v>
+        <v>1139</v>
       </c>
     </row>
     <row r="546" spans="1:3" x14ac:dyDescent="0.35">
@@ -10178,7 +10146,7 @@
         <v>570</v>
       </c>
       <c r="C546" s="4" t="s">
-        <v>1157</v>
+        <v>1140</v>
       </c>
     </row>
     <row r="547" spans="1:3" x14ac:dyDescent="0.35">
@@ -10189,7 +10157,7 @@
         <v>571</v>
       </c>
       <c r="C547" s="4" t="s">
-        <v>1158</v>
+        <v>1141</v>
       </c>
     </row>
     <row r="548" spans="1:3" x14ac:dyDescent="0.35">
@@ -10200,7 +10168,7 @@
         <v>572</v>
       </c>
       <c r="C548" s="4" t="s">
-        <v>1159</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="549" spans="1:3" x14ac:dyDescent="0.35">
@@ -10211,7 +10179,7 @@
         <v>573</v>
       </c>
       <c r="C549" s="4" t="s">
-        <v>1160</v>
+        <v>1143</v>
       </c>
     </row>
     <row r="550" spans="1:3" x14ac:dyDescent="0.35">
@@ -10222,7 +10190,7 @@
         <v>574</v>
       </c>
       <c r="C550" s="4" t="s">
-        <v>1161</v>
+        <v>1144</v>
       </c>
     </row>
     <row r="551" spans="1:3" x14ac:dyDescent="0.35">
@@ -10233,7 +10201,7 @@
         <v>575</v>
       </c>
       <c r="C551" s="4" t="s">
-        <v>1162</v>
+        <v>1145</v>
       </c>
     </row>
     <row r="552" spans="1:3" x14ac:dyDescent="0.35">
@@ -10244,7 +10212,7 @@
         <v>576</v>
       </c>
       <c r="C552" s="4" t="s">
-        <v>1163</v>
+        <v>1146</v>
       </c>
     </row>
     <row r="553" spans="1:3" x14ac:dyDescent="0.35">
@@ -10255,7 +10223,7 @@
         <v>577</v>
       </c>
       <c r="C553" s="4" t="s">
-        <v>1164</v>
+        <v>1147</v>
       </c>
     </row>
     <row r="554" spans="1:3" x14ac:dyDescent="0.35">
@@ -10266,7 +10234,7 @@
         <v>578</v>
       </c>
       <c r="C554" s="4" t="s">
-        <v>1165</v>
+        <v>1148</v>
       </c>
     </row>
     <row r="555" spans="1:3" x14ac:dyDescent="0.35">
@@ -10277,7 +10245,7 @@
         <v>579</v>
       </c>
       <c r="C555" s="4" t="s">
-        <v>1166</v>
+        <v>1149</v>
       </c>
     </row>
     <row r="556" spans="1:3" x14ac:dyDescent="0.35">
@@ -10288,7 +10256,7 @@
         <v>580</v>
       </c>
       <c r="C556" s="4" t="s">
-        <v>1167</v>
+        <v>1150</v>
       </c>
     </row>
     <row r="557" spans="1:3" x14ac:dyDescent="0.35">
@@ -10299,7 +10267,7 @@
         <v>581</v>
       </c>
       <c r="C557" s="4" t="s">
-        <v>1168</v>
+        <v>1151</v>
       </c>
     </row>
     <row r="558" spans="1:3" x14ac:dyDescent="0.35">
@@ -10310,7 +10278,7 @@
         <v>582</v>
       </c>
       <c r="C558" s="4" t="s">
-        <v>1169</v>
+        <v>1152</v>
       </c>
     </row>
     <row r="559" spans="1:3" x14ac:dyDescent="0.35">
@@ -10321,7 +10289,7 @@
         <v>583</v>
       </c>
       <c r="C559" s="4" t="s">
-        <v>1170</v>
+        <v>1153</v>
       </c>
     </row>
     <row r="560" spans="1:3" x14ac:dyDescent="0.35">
@@ -10332,7 +10300,7 @@
         <v>584</v>
       </c>
       <c r="C560" s="4" t="s">
-        <v>1171</v>
+        <v>1154</v>
       </c>
     </row>
     <row r="561" spans="1:3" x14ac:dyDescent="0.35">
@@ -10343,7 +10311,7 @@
         <v>585</v>
       </c>
       <c r="C561" s="4" t="s">
-        <v>1172</v>
+        <v>1155</v>
       </c>
     </row>
     <row r="562" spans="1:3" x14ac:dyDescent="0.35">
@@ -10354,7 +10322,7 @@
         <v>586</v>
       </c>
       <c r="C562" s="4" t="s">
-        <v>1173</v>
+        <v>1156</v>
       </c>
     </row>
     <row r="563" spans="1:3" x14ac:dyDescent="0.35">
@@ -10365,7 +10333,7 @@
         <v>587</v>
       </c>
       <c r="C563" s="4" t="s">
-        <v>1174</v>
+        <v>1157</v>
       </c>
     </row>
     <row r="564" spans="1:3" x14ac:dyDescent="0.35">
@@ -10376,7 +10344,7 @@
         <v>588</v>
       </c>
       <c r="C564" s="4" t="s">
-        <v>1175</v>
+        <v>1158</v>
       </c>
     </row>
     <row r="565" spans="1:3" x14ac:dyDescent="0.35">
@@ -10387,7 +10355,7 @@
         <v>589</v>
       </c>
       <c r="C565" s="4" t="s">
-        <v>1176</v>
+        <v>1159</v>
       </c>
     </row>
     <row r="566" spans="1:3" x14ac:dyDescent="0.35">
@@ -10398,7 +10366,7 @@
         <v>590</v>
       </c>
       <c r="C566" s="4" t="s">
-        <v>1177</v>
+        <v>1160</v>
       </c>
     </row>
     <row r="567" spans="1:3" x14ac:dyDescent="0.35">
@@ -10409,7 +10377,7 @@
         <v>591</v>
       </c>
       <c r="C567" s="4" t="s">
-        <v>1178</v>
+        <v>1161</v>
       </c>
     </row>
     <row r="568" spans="1:3" x14ac:dyDescent="0.35">
@@ -10420,7 +10388,7 @@
         <v>592</v>
       </c>
       <c r="C568" s="4" t="s">
-        <v>1179</v>
+        <v>1162</v>
       </c>
     </row>
     <row r="569" spans="1:3" x14ac:dyDescent="0.35">
@@ -10431,7 +10399,7 @@
         <v>593</v>
       </c>
       <c r="C569" s="4" t="s">
-        <v>1180</v>
+        <v>1163</v>
       </c>
     </row>
     <row r="570" spans="1:3" x14ac:dyDescent="0.35">
@@ -10442,7 +10410,7 @@
         <v>594</v>
       </c>
       <c r="C570" s="4" t="s">
-        <v>1181</v>
+        <v>1164</v>
       </c>
     </row>
     <row r="571" spans="1:3" x14ac:dyDescent="0.35">
@@ -10453,7 +10421,7 @@
         <v>595</v>
       </c>
       <c r="C571" s="4" t="s">
-        <v>1182</v>
+        <v>1165</v>
       </c>
     </row>
     <row r="572" spans="1:3" x14ac:dyDescent="0.35">
@@ -10464,7 +10432,7 @@
         <v>596</v>
       </c>
       <c r="C572" s="4" t="s">
-        <v>1183</v>
+        <v>1166</v>
       </c>
     </row>
     <row r="573" spans="1:3" x14ac:dyDescent="0.35">
@@ -10475,7 +10443,7 @@
         <v>597</v>
       </c>
       <c r="C573" s="4" t="s">
-        <v>1184</v>
+        <v>1167</v>
       </c>
     </row>
     <row r="574" spans="1:3" x14ac:dyDescent="0.35">
@@ -10486,7 +10454,7 @@
         <v>598</v>
       </c>
       <c r="C574" s="4" t="s">
-        <v>1186</v>
+        <v>1169</v>
       </c>
     </row>
     <row r="575" spans="1:3" x14ac:dyDescent="0.35">
@@ -10497,7 +10465,7 @@
         <v>599</v>
       </c>
       <c r="C575" s="4" t="s">
-        <v>1185</v>
+        <v>1168</v>
       </c>
     </row>
     <row r="576" spans="1:3" x14ac:dyDescent="0.35">
@@ -10508,7 +10476,7 @@
         <v>600</v>
       </c>
       <c r="C576" s="4" t="s">
-        <v>1187</v>
+        <v>1170</v>
       </c>
     </row>
     <row r="577" spans="1:3" x14ac:dyDescent="0.35">
@@ -10519,7 +10487,7 @@
         <v>601</v>
       </c>
       <c r="C577" s="4" t="s">
-        <v>1188</v>
+        <v>1171</v>
       </c>
     </row>
     <row r="578" spans="1:3" x14ac:dyDescent="0.35">
@@ -10530,7 +10498,7 @@
         <v>602</v>
       </c>
       <c r="C578" s="4" t="s">
-        <v>1189</v>
+        <v>1172</v>
       </c>
     </row>
     <row r="579" spans="1:3" x14ac:dyDescent="0.35">
@@ -10541,7 +10509,7 @@
         <v>603</v>
       </c>
       <c r="C579" s="4" t="s">
-        <v>1190</v>
+        <v>1173</v>
       </c>
     </row>
     <row r="580" spans="1:3" x14ac:dyDescent="0.35">
@@ -10552,7 +10520,7 @@
         <v>604</v>
       </c>
       <c r="C580" s="4" t="s">
-        <v>1191</v>
+        <v>1174</v>
       </c>
     </row>
     <row r="581" spans="1:3" x14ac:dyDescent="0.35">
@@ -10563,7 +10531,7 @@
         <v>605</v>
       </c>
       <c r="C581" s="4" t="s">
-        <v>1192</v>
+        <v>1175</v>
       </c>
     </row>
     <row r="582" spans="1:3" x14ac:dyDescent="0.35">
@@ -10805,7 +10773,7 @@
         <v>629</v>
       </c>
       <c r="C603" s="4" t="s">
-        <v>1203</v>
+        <v>1186</v>
       </c>
       <c r="D603" s="3"/>
     </row>
@@ -10817,7 +10785,7 @@
         <v>630</v>
       </c>
       <c r="C604" s="4" t="s">
-        <v>1194</v>
+        <v>1177</v>
       </c>
     </row>
     <row r="605" spans="1:4" x14ac:dyDescent="0.35">
@@ -10828,7 +10796,7 @@
         <v>631</v>
       </c>
       <c r="C605" s="4" t="s">
-        <v>1195</v>
+        <v>1178</v>
       </c>
     </row>
     <row r="606" spans="1:4" x14ac:dyDescent="0.35">
@@ -10839,7 +10807,7 @@
         <v>632</v>
       </c>
       <c r="C606" s="4" t="s">
-        <v>1196</v>
+        <v>1179</v>
       </c>
     </row>
     <row r="607" spans="1:4" x14ac:dyDescent="0.35">
@@ -10850,7 +10818,7 @@
         <v>633</v>
       </c>
       <c r="C607" s="4" t="s">
-        <v>1197</v>
+        <v>1180</v>
       </c>
     </row>
     <row r="608" spans="1:4" x14ac:dyDescent="0.35">
@@ -10861,7 +10829,7 @@
         <v>634</v>
       </c>
       <c r="C608" s="4" t="s">
-        <v>1198</v>
+        <v>1181</v>
       </c>
     </row>
     <row r="609" spans="1:3" x14ac:dyDescent="0.35">
@@ -10872,7 +10840,7 @@
         <v>635</v>
       </c>
       <c r="C609" s="4" t="s">
-        <v>1199</v>
+        <v>1182</v>
       </c>
     </row>
     <row r="610" spans="1:3" x14ac:dyDescent="0.35">
@@ -10883,7 +10851,7 @@
         <v>636</v>
       </c>
       <c r="C610" s="4" t="s">
-        <v>1193</v>
+        <v>1176</v>
       </c>
     </row>
     <row r="611" spans="1:3" x14ac:dyDescent="0.35">
@@ -10894,7 +10862,7 @@
         <v>637</v>
       </c>
       <c r="C611" s="4" t="s">
-        <v>1198</v>
+        <v>1181</v>
       </c>
     </row>
     <row r="612" spans="1:3" x14ac:dyDescent="0.35">
@@ -10905,7 +10873,7 @@
         <v>638</v>
       </c>
       <c r="C612" s="4" t="s">
-        <v>1194</v>
+        <v>1177</v>
       </c>
     </row>
     <row r="613" spans="1:3" x14ac:dyDescent="0.35">
@@ -10916,7 +10884,7 @@
         <v>639</v>
       </c>
       <c r="C613" s="4" t="s">
-        <v>1197</v>
+        <v>1180</v>
       </c>
     </row>
     <row r="614" spans="1:3" x14ac:dyDescent="0.35">
@@ -10927,7 +10895,7 @@
         <v>640</v>
       </c>
       <c r="C614" s="4" t="s">
-        <v>1200</v>
+        <v>1183</v>
       </c>
     </row>
     <row r="615" spans="1:3" x14ac:dyDescent="0.35">
@@ -10938,7 +10906,7 @@
         <v>641</v>
       </c>
       <c r="C615" s="4" t="s">
-        <v>1201</v>
+        <v>1184</v>
       </c>
     </row>
     <row r="616" spans="1:3" x14ac:dyDescent="0.35">
@@ -10949,7 +10917,7 @@
         <v>642</v>
       </c>
       <c r="C616" s="4" t="s">
-        <v>1198</v>
+        <v>1181</v>
       </c>
     </row>
     <row r="617" spans="1:3" x14ac:dyDescent="0.35">
@@ -10960,7 +10928,7 @@
         <v>643</v>
       </c>
       <c r="C617" s="4" t="s">
-        <v>1200</v>
+        <v>1183</v>
       </c>
     </row>
     <row r="618" spans="1:3" x14ac:dyDescent="0.35">
@@ -10971,7 +10939,7 @@
         <v>644</v>
       </c>
       <c r="C618" s="4" t="s">
-        <v>1202</v>
+        <v>1185</v>
       </c>
     </row>
     <row r="619" spans="1:3" x14ac:dyDescent="0.35">
@@ -10982,7 +10950,7 @@
         <v>645</v>
       </c>
       <c r="C619" s="4" t="s">
-        <v>1201</v>
+        <v>1184</v>
       </c>
     </row>
     <row r="620" spans="1:3" x14ac:dyDescent="0.35">
@@ -10993,7 +10961,7 @@
         <v>646</v>
       </c>
       <c r="C620" s="4" t="s">
-        <v>1195</v>
+        <v>1178</v>
       </c>
     </row>
     <row r="621" spans="1:3" x14ac:dyDescent="0.35">
@@ -11004,7 +10972,7 @@
         <v>647</v>
       </c>
       <c r="C621" s="4" t="s">
-        <v>1196</v>
+        <v>1179</v>
       </c>
     </row>
     <row r="622" spans="1:3" x14ac:dyDescent="0.35">
@@ -11015,7 +10983,7 @@
         <v>648</v>
       </c>
       <c r="C622" s="4" t="s">
-        <v>1203</v>
+        <v>1186</v>
       </c>
     </row>
     <row r="623" spans="1:3" x14ac:dyDescent="0.35">
@@ -11026,7 +10994,7 @@
         <v>649</v>
       </c>
       <c r="C623" s="4" t="s">
-        <v>1193</v>
+        <v>1176</v>
       </c>
     </row>
     <row r="624" spans="1:3" x14ac:dyDescent="0.35">
@@ -11037,7 +11005,7 @@
         <v>650</v>
       </c>
       <c r="C624" s="4" t="s">
-        <v>1204</v>
+        <v>1187</v>
       </c>
     </row>
     <row r="625" spans="1:3" x14ac:dyDescent="0.35">
@@ -11048,7 +11016,7 @@
         <v>651</v>
       </c>
       <c r="C625" s="4" t="s">
-        <v>1198</v>
+        <v>1181</v>
       </c>
     </row>
     <row r="626" spans="1:3" x14ac:dyDescent="0.35">
@@ -11059,7 +11027,7 @@
         <v>652</v>
       </c>
       <c r="C626" s="4" t="s">
-        <v>1193</v>
+        <v>1176</v>
       </c>
     </row>
     <row r="627" spans="1:3" x14ac:dyDescent="0.35">
@@ -11070,7 +11038,7 @@
         <v>653</v>
       </c>
       <c r="C627" s="4" t="s">
-        <v>1198</v>
+        <v>1181</v>
       </c>
     </row>
     <row r="628" spans="1:3" x14ac:dyDescent="0.35">
@@ -11081,7 +11049,7 @@
         <v>654</v>
       </c>
       <c r="C628" s="4" t="s">
-        <v>1202</v>
+        <v>1185</v>
       </c>
     </row>
     <row r="629" spans="1:3" x14ac:dyDescent="0.35">
@@ -11092,7 +11060,7 @@
         <v>655</v>
       </c>
       <c r="C629" s="4" t="s">
-        <v>1196</v>
+        <v>1179</v>
       </c>
     </row>
     <row r="630" spans="1:3" x14ac:dyDescent="0.35">
@@ -11103,7 +11071,7 @@
         <v>656</v>
       </c>
       <c r="C630" s="4" t="s">
-        <v>1204</v>
+        <v>1187</v>
       </c>
     </row>
     <row r="631" spans="1:3" x14ac:dyDescent="0.35">
@@ -11114,7 +11082,7 @@
         <v>657</v>
       </c>
       <c r="C631" s="4" t="s">
-        <v>1193</v>
+        <v>1176</v>
       </c>
     </row>
     <row r="632" spans="1:3" x14ac:dyDescent="0.35">
@@ -11125,7 +11093,7 @@
         <v>658</v>
       </c>
       <c r="C632" s="4" t="s">
-        <v>1194</v>
+        <v>1177</v>
       </c>
     </row>
     <row r="633" spans="1:3" x14ac:dyDescent="0.35">
@@ -11136,7 +11104,7 @@
         <v>659</v>
       </c>
       <c r="C633" s="4" t="s">
-        <v>1202</v>
+        <v>1185</v>
       </c>
     </row>
     <row r="634" spans="1:3" x14ac:dyDescent="0.35">
@@ -11147,7 +11115,7 @@
         <v>660</v>
       </c>
       <c r="C634" s="4" t="s">
-        <v>1203</v>
+        <v>1186</v>
       </c>
     </row>
     <row r="635" spans="1:3" x14ac:dyDescent="0.35">
@@ -11158,7 +11126,7 @@
         <v>661</v>
       </c>
       <c r="C635" s="4" t="s">
-        <v>1203</v>
+        <v>1186</v>
       </c>
     </row>
     <row r="636" spans="1:3" x14ac:dyDescent="0.35">
@@ -11169,7 +11137,7 @@
         <v>662</v>
       </c>
       <c r="C636" s="4" t="s">
-        <v>1200</v>
+        <v>1183</v>
       </c>
     </row>
     <row r="637" spans="1:3" x14ac:dyDescent="0.35">
@@ -11180,7 +11148,7 @@
         <v>663</v>
       </c>
       <c r="C637" s="4" t="s">
-        <v>1197</v>
+        <v>1180</v>
       </c>
     </row>
     <row r="638" spans="1:3" x14ac:dyDescent="0.35">
@@ -11191,7 +11159,7 @@
         <v>664</v>
       </c>
       <c r="C638" s="4" t="s">
-        <v>1203</v>
+        <v>1186</v>
       </c>
     </row>
     <row r="639" spans="1:3" x14ac:dyDescent="0.35">
@@ -11202,7 +11170,7 @@
         <v>665</v>
       </c>
       <c r="C639" s="4" t="s">
-        <v>1199</v>
+        <v>1182</v>
       </c>
     </row>
     <row r="640" spans="1:3" x14ac:dyDescent="0.35">
@@ -11213,7 +11181,7 @@
         <v>666</v>
       </c>
       <c r="C640" s="4" t="s">
-        <v>1201</v>
+        <v>1184</v>
       </c>
     </row>
     <row r="641" spans="1:3" x14ac:dyDescent="0.35">
@@ -11224,7 +11192,7 @@
         <v>667</v>
       </c>
       <c r="C641" s="4" t="s">
-        <v>1199</v>
+        <v>1182</v>
       </c>
     </row>
     <row r="642" spans="1:3" x14ac:dyDescent="0.35">
@@ -11235,7 +11203,7 @@
         <v>668</v>
       </c>
       <c r="C642" s="4" t="s">
-        <v>1202</v>
+        <v>1185</v>
       </c>
     </row>
     <row r="643" spans="1:3" x14ac:dyDescent="0.35">
@@ -11246,7 +11214,7 @@
         <v>669</v>
       </c>
       <c r="C643" s="4" t="s">
-        <v>1203</v>
+        <v>1186</v>
       </c>
     </row>
     <row r="644" spans="1:3" x14ac:dyDescent="0.35">
@@ -11257,7 +11225,7 @@
         <v>670</v>
       </c>
       <c r="C644" s="4" t="s">
-        <v>1195</v>
+        <v>1178</v>
       </c>
     </row>
     <row r="645" spans="1:3" x14ac:dyDescent="0.35">
@@ -11268,7 +11236,7 @@
         <v>671</v>
       </c>
       <c r="C645" s="4" t="s">
-        <v>1200</v>
+        <v>1183</v>
       </c>
     </row>
     <row r="646" spans="1:3" x14ac:dyDescent="0.35">
@@ -11279,7 +11247,7 @@
         <v>672</v>
       </c>
       <c r="C646" s="4" t="s">
-        <v>1199</v>
+        <v>1182</v>
       </c>
     </row>
     <row r="647" spans="1:3" x14ac:dyDescent="0.35">
@@ -11290,7 +11258,7 @@
         <v>673</v>
       </c>
       <c r="C647" s="4" t="s">
-        <v>1203</v>
+        <v>1186</v>
       </c>
     </row>
     <row r="648" spans="1:3" x14ac:dyDescent="0.35">
@@ -11301,7 +11269,7 @@
         <v>674</v>
       </c>
       <c r="C648" s="4" t="s">
-        <v>1196</v>
+        <v>1179</v>
       </c>
     </row>
     <row r="649" spans="1:3" x14ac:dyDescent="0.35">
@@ -11312,7 +11280,7 @@
         <v>675</v>
       </c>
       <c r="C649" s="4" t="s">
-        <v>1194</v>
+        <v>1177</v>
       </c>
     </row>
     <row r="650" spans="1:3" x14ac:dyDescent="0.35">
@@ -11323,7 +11291,7 @@
         <v>676</v>
       </c>
       <c r="C650" s="4" t="s">
-        <v>1204</v>
+        <v>1187</v>
       </c>
     </row>
     <row r="651" spans="1:3" x14ac:dyDescent="0.35">
@@ -11334,7 +11302,7 @@
         <v>677</v>
       </c>
       <c r="C651" s="4" t="s">
-        <v>1202</v>
+        <v>1185</v>
       </c>
     </row>
     <row r="652" spans="1:3" x14ac:dyDescent="0.35">
@@ -11345,7 +11313,7 @@
         <v>678</v>
       </c>
       <c r="C652" s="4" t="s">
-        <v>1201</v>
+        <v>1184</v>
       </c>
     </row>
     <row r="653" spans="1:3" x14ac:dyDescent="0.35">
@@ -11356,7 +11324,7 @@
         <v>679</v>
       </c>
       <c r="C653" s="4" t="s">
-        <v>1196</v>
+        <v>1179</v>
       </c>
     </row>
     <row r="654" spans="1:3" x14ac:dyDescent="0.35">
@@ -11367,7 +11335,7 @@
         <v>680</v>
       </c>
       <c r="C654" s="4" t="s">
-        <v>1198</v>
+        <v>1181</v>
       </c>
     </row>
     <row r="655" spans="1:3" x14ac:dyDescent="0.35">
@@ -11378,7 +11346,7 @@
         <v>681</v>
       </c>
       <c r="C655" s="4" t="s">
-        <v>1204</v>
+        <v>1187</v>
       </c>
     </row>
     <row r="656" spans="1:3" x14ac:dyDescent="0.35">
@@ -11389,7 +11357,7 @@
         <v>682</v>
       </c>
       <c r="C656" s="4" t="s">
-        <v>1202</v>
+        <v>1185</v>
       </c>
     </row>
     <row r="657" spans="1:3" x14ac:dyDescent="0.35">
@@ -11400,7 +11368,7 @@
         <v>683</v>
       </c>
       <c r="C657" s="4" t="s">
-        <v>1196</v>
+        <v>1179</v>
       </c>
     </row>
     <row r="658" spans="1:3" x14ac:dyDescent="0.35">
@@ -11411,7 +11379,7 @@
         <v>684</v>
       </c>
       <c r="C658" s="4" t="s">
-        <v>1201</v>
+        <v>1184</v>
       </c>
     </row>
     <row r="659" spans="1:3" x14ac:dyDescent="0.35">
@@ -11422,7 +11390,7 @@
         <v>685</v>
       </c>
       <c r="C659" s="4" t="s">
-        <v>1196</v>
+        <v>1179</v>
       </c>
     </row>
     <row r="660" spans="1:3" x14ac:dyDescent="0.35">
@@ -11433,7 +11401,7 @@
         <v>686</v>
       </c>
       <c r="C660" s="4" t="s">
-        <v>1196</v>
+        <v>1179</v>
       </c>
     </row>
     <row r="661" spans="1:3" x14ac:dyDescent="0.35">
